--- a/FinancialPlanner/data/usa_data.xlsx
+++ b/FinancialPlanner/data/usa_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matsz\programowanie\Optymalizacja_portfela\FinancialPlanner\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FEC20F-7FE1-4447-967B-DC8324076A9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A89AF88-C629-45CF-B7E3-E0AEACE182A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -569,10 +569,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:M885"/>
+  <dimension ref="A1:M873"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView tabSelected="1" topLeftCell="A868" workbookViewId="0">
+      <selection activeCell="A874" sqref="A874:XFD886"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -39399,53 +39399,6 @@
       <c r="M873" s="19">
         <v>102.5192</v>
       </c>
-    </row>
-    <row r="874" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D874" s="17"/>
-      <c r="M874" s="19"/>
-    </row>
-    <row r="875" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D875" s="18"/>
-      <c r="M875" s="19"/>
-    </row>
-    <row r="876" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D876" s="17"/>
-      <c r="M876" s="19"/>
-    </row>
-    <row r="877" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D877" s="18"/>
-      <c r="M877" s="19"/>
-    </row>
-    <row r="878" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D878" s="17"/>
-      <c r="M878" s="19"/>
-    </row>
-    <row r="879" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D879" s="18"/>
-      <c r="M879" s="19"/>
-    </row>
-    <row r="880" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="D880" s="17"/>
-      <c r="M880" s="19"/>
-    </row>
-    <row r="881" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D881" s="18"/>
-      <c r="M881" s="19"/>
-    </row>
-    <row r="882" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D882" s="17"/>
-      <c r="M882" s="19"/>
-    </row>
-    <row r="883" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D883" s="18"/>
-      <c r="M883" s="19"/>
-    </row>
-    <row r="884" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D884" s="17"/>
-      <c r="M884" s="19"/>
-    </row>
-    <row r="885" spans="4:13" x14ac:dyDescent="0.3">
-      <c r="D885" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
